--- a/app/tables/follow_map_time/forms/follow_map_time/follow_map_time.xlsx
+++ b/app/tables/follow_map_time/forms/follow_map_time/follow_map_time.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="2860" windowWidth="30500" windowHeight="18040" tabRatio="500"/>
+    <workbookView xWindow="3320" yWindow="180" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>clause</t>
   </si>
@@ -40,9 +40,6 @@
     <t>display.text</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
   </si>
   <si>
     <t>Date of the follow</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>FMT_time</t>
@@ -524,7 +518,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -564,94 +558,94 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -745,27 +739,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6">
         <v>20140715</v>
@@ -774,11 +768,11 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
